--- a/cleaned last season/lastseasonwicketkeeper_smat.xlsx
+++ b/cleaned last season/lastseasonwicketkeeper_smat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/Dataset_Final/lastseason/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/cleaned last season/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5929A055-0008-1248-BC9C-58FE2A652FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A3E49B-9DE4-F047-9ACB-9F522C3CD382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="1220" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10300" yWindow="1600" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>Dismissed</t>
   </si>
   <si>
-    <t>catches Taken</t>
-  </si>
-  <si>
     <t>Stumpings</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>KS Rathore</t>
+  </si>
+  <si>
+    <t>Catches taken</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -482,30 +482,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>9</v>
@@ -529,10 +529,10 @@
         <v>0.77700000000000002</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="K2" s="2">
         <v>3</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>7</v>
@@ -564,10 +564,10 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="2">
         <v>6</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
         <v>12</v>
@@ -599,10 +599,10 @@
         <v>0.66600000000000004</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="K4" s="2">
         <v>4</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
         <v>15</v>
@@ -634,10 +634,10 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="2">
         <v>3</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" s="2">
         <v>5</v>
